--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_11.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_5_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726458.3307769081</v>
+        <v>-694828.9476002553</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17449938.18306643</v>
+        <v>16765245.1615573</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484446</v>
+        <v>492028.9342484447</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9555963.036450176</v>
+        <v>9591571.593896979</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>350.8700747665492</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>155.7314644317704</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>404.2032624633431</v>
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
@@ -871,7 +871,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>87.72711675604548</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
@@ -880,10 +880,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>92.85483486179584</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +899,19 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>105.2993770085281</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>149.2887204007739</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.85899356878446</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>86.48613679462073</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1133,7 +1133,7 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>431.5506869772999</v>
@@ -1142,10 +1142,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>340.0598820534839</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>86.6047663878724</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>0.8069000430770075</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1306,7 +1306,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,16 +1342,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>131.996999652747</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>7.800451539261739</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1379,16 +1379,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,10 +1421,10 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1433,10 +1433,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>80.61680730049038</v>
       </c>
       <c r="Y11" t="n">
-        <v>185.8724254773984</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1537,13 +1537,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>63.51633119327867</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1582,13 +1582,13 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>41.94061297377363</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1625,7 +1625,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791313668</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>50.38971918733531</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1828,10 +1828,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>168.7843377880174</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -2005,7 +2005,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704895</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998912</v>
       </c>
       <c r="U19" t="n">
-        <v>136.0564930767007</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800226</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2248,10 +2248,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>60.78001549303664</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,13 +2287,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>155.2022955251537</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2539,7 +2539,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X25" t="n">
-        <v>242.9378371199217</v>
+        <v>169.3086501403034</v>
       </c>
       <c r="Y25" t="n">
         <v>225.1454739790328</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>43.48898701015912</v>
+        <v>3.139541480023122</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225813</v>
+        <v>18.05677735225723</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.05677735225796</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.57964473925399</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V35" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3676,10 +3676,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.5376393943239</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742934458</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4150,10 +4150,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277818</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934472</v>
+        <v>4.967932742933594</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>484.0636759001416</v>
+        <v>1269.56550788395</v>
       </c>
       <c r="C2" t="n">
-        <v>449.9616071239689</v>
+        <v>1235.463439107777</v>
       </c>
       <c r="D2" t="n">
-        <v>418.0922263388175</v>
+        <v>799.5536542822215</v>
       </c>
       <c r="E2" t="n">
-        <v>388.3578855375167</v>
+        <v>769.8193134809208</v>
       </c>
       <c r="F2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901285</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>341.9518838901285</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.82172933334478</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048479</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>487.6596274134027</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1136.170759424402</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1256.083015301588</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1904.594147312588</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2451.092933271183</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208076</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2536.595124208076</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2277.372821525093</v>
       </c>
       <c r="V2" t="n">
-        <v>1334.566480014244</v>
+        <v>2120.068311998052</v>
       </c>
       <c r="W2" t="n">
-        <v>1333.751429465681</v>
+        <v>2119.253261449489</v>
       </c>
       <c r="X2" t="n">
-        <v>1318.649370085396</v>
+        <v>1700.1107980288</v>
       </c>
       <c r="Y2" t="n">
-        <v>910.3632463850494</v>
+        <v>1291.824674328454</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>558.5766849517776</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>452.1202237884199</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>357.0299349349731</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>262.9095202619268</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>179.5256818780884</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>94.14059214427232</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048479</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>78.46861312094239</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="K3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="L3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="M3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="N3" t="n">
-        <v>384.5656667282782</v>
+        <v>403.0269380871547</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>409.2218527018792</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1057.732984712879</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1598.471923344954</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1715.644701439294</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1652.189263887677</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.010620218278</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1345.674073218247</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1146.556555280246</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>961.2338010134399</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>806.36636525232</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>679.8805860315407</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>339.4371178854062</v>
+        <v>902.9009770374159</v>
       </c>
       <c r="C4" t="n">
-        <v>339.4371178854062</v>
+        <v>730.3392655206409</v>
       </c>
       <c r="D4" t="n">
-        <v>339.4371178854062</v>
+        <v>564.4612727221636</v>
       </c>
       <c r="E4" t="n">
-        <v>339.4371178854062</v>
+        <v>394.7032689729009</v>
       </c>
       <c r="F4" t="n">
-        <v>339.4371178854062</v>
+        <v>217.9962149346571</v>
       </c>
       <c r="G4" t="n">
-        <v>173.8458429112338</v>
+        <v>52.40493996048479</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048479</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>52.40493996048479</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>138.9846251251747</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>413.7430796963102</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>831.9529614642713</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>1291.436828645185</v>
       </c>
       <c r="N4" t="n">
-        <v>1378.839033424066</v>
+        <v>1733.695631802829</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2153.36488102861</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.871774998952</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2620.246998024239</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2461.005629322236</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>2215.126182900691</v>
       </c>
       <c r="U4" t="n">
-        <v>992.2117929153466</v>
+        <v>2126.51293365216</v>
       </c>
       <c r="V4" t="n">
-        <v>705.2562847857771</v>
+        <v>1839.557425522591</v>
       </c>
       <c r="W4" t="n">
-        <v>433.2298803720686</v>
+        <v>1567.531021108882</v>
       </c>
       <c r="X4" t="n">
-        <v>339.4371178854062</v>
+        <v>1322.139266442295</v>
       </c>
       <c r="Y4" t="n">
-        <v>339.4371178854062</v>
+        <v>1094.719595756403</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1245.49437657324</v>
+        <v>1382.412671899186</v>
       </c>
       <c r="C5" t="n">
-        <v>1211.392307797067</v>
+        <v>1348.310603123013</v>
       </c>
       <c r="D5" t="n">
-        <v>1179.522927011916</v>
+        <v>912.4008182974576</v>
       </c>
       <c r="E5" t="n">
-        <v>750.9412527491843</v>
+        <v>882.6664774961569</v>
       </c>
       <c r="F5" t="n">
-        <v>323.0738231583921</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>453.9965675465116</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>453.9965675465116</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1613.531556264254</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1393.464329137293</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1393.464329137293</v>
+        <v>2327.186649932281</v>
       </c>
       <c r="V5" t="n">
-        <v>1393.464329137293</v>
+        <v>1964.569699866108</v>
       </c>
       <c r="W5" t="n">
-        <v>1287.101322057972</v>
+        <v>1559.714245277141</v>
       </c>
       <c r="X5" t="n">
-        <v>1271.999262677686</v>
+        <v>1408.917558003632</v>
       </c>
       <c r="Y5" t="n">
-        <v>1267.753543017744</v>
+        <v>1404.67183834369</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>73.33088177303154</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="D7" t="n">
-        <v>33.94366860160834</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="E7" t="n">
-        <v>33.94366860160834</v>
+        <v>571.7192289023499</v>
       </c>
       <c r="F7" t="n">
-        <v>33.94366860160834</v>
+        <v>395.0121748641061</v>
       </c>
       <c r="G7" t="n">
-        <v>33.94366860160834</v>
+        <v>229.4208998899338</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>538.7332355342593</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1151.45316161735</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>864.4976534877803</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>592.4712490740719</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>347.0794944074844</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>119.6598237215927</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1779.058070703177</v>
+        <v>1702.080476705852</v>
       </c>
       <c r="C8" t="n">
-        <v>1340.915597886601</v>
+        <v>1667.97840792968</v>
       </c>
       <c r="D8" t="n">
-        <v>905.0058130610453</v>
+        <v>1232.068623104124</v>
       </c>
       <c r="E8" t="n">
-        <v>471.2310682193404</v>
+        <v>798.2938782624192</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36363862854813</v>
+        <v>454.7990479053647</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36363862854813</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36363862854813</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36363862854813</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>43.36363862854813</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>43.36363862854813</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3068473425571</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="M8" t="n">
-        <v>558.3068473425571</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="N8" t="n">
-        <v>558.3068473425571</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>1094.93187537084</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1631.556903399123</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.181931427407</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.181931427407</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.181931427407</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.181931427407</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1908.959628744424</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1821.480066736472</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1820.665016187909</v>
+        <v>1743.687422190584</v>
       </c>
       <c r="X8" t="n">
-        <v>1805.562956807624</v>
+        <v>1728.585362810299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1801.317237147681</v>
+        <v>1724.339643150356</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>549.5353836198409</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>443.0789224564832</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>347.9886336030365</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>253.8682189299902</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>170.4843805461518</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>85.09929081233565</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36363862854813</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>69.42731178900573</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>393.985636755218</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>930.6106647835011</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1052.805593984734</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1052.805593984734</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1052.805593984734</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1052.805593984734</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1052.805593984734</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1589.430622013017</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1706.603400107357</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1643.14796255574</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1512.969318886342</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1336.63277188631</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1137.515253948309</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>952.1924996815033</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>797.3250639203833</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>670.839284699604</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>982.519624930804</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>809.9579134140289</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>644.0799206155516</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>474.3219168662889</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>297.6148628280451</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>132.0235878538728</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>132.0235878538728</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36363862854813</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36363862854813</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>81.05323612476488</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>499.2631178927259</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>958.7469850736389</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1401.005788231284</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1820.675037457065</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2168.181931427407</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2168.181931427407</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2146.764110132779</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1987.522741430775</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>1741.64329500923</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="U10" t="n">
-        <v>1463.210294262336</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1463.210294262336</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1455.331050283283</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1209.939295616696</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>982.519624930804</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2068.893185458867</v>
+        <v>1809.055215706653</v>
       </c>
       <c r="C11" t="n">
-        <v>1630.750712642291</v>
+        <v>1370.912742890076</v>
       </c>
       <c r="D11" t="n">
-        <v>1194.840927816735</v>
+        <v>935.00295806452</v>
       </c>
       <c r="E11" t="n">
-        <v>761.0661829750302</v>
+        <v>501.2282132228153</v>
       </c>
       <c r="F11" t="n">
-        <v>761.0661829750302</v>
+        <v>73.36078363202304</v>
       </c>
       <c r="G11" t="n">
-        <v>359.6683515982938</v>
+        <v>73.36078363202304</v>
       </c>
       <c r="H11" t="n">
-        <v>70.53819704151009</v>
+        <v>73.36078363202304</v>
       </c>
       <c r="I11" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="J11" t="n">
-        <v>70.53819704151009</v>
+        <v>508.1986817120809</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2808145061391</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="L11" t="n">
-        <v>1279.191002894826</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="M11" t="n">
-        <v>1279.191002894826</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="N11" t="n">
-        <v>1279.191002894826</v>
+        <v>1342.548973670259</v>
       </c>
       <c r="O11" t="n">
-        <v>2152.101191283514</v>
+        <v>2245.230902627402</v>
       </c>
       <c r="P11" t="n">
-        <v>2980.41106611691</v>
+        <v>3073.540777460797</v>
       </c>
       <c r="Q11" t="n">
-        <v>3526.909852075505</v>
+        <v>3620.039563419392</v>
       </c>
       <c r="R11" t="n">
-        <v>3526.909852075505</v>
+        <v>3647.199712958152</v>
       </c>
       <c r="S11" t="n">
-        <v>3443.257978259342</v>
+        <v>3563.547839141989</v>
       </c>
       <c r="T11" t="n">
-        <v>3443.257978259341</v>
+        <v>3343.480612015028</v>
       </c>
       <c r="U11" t="n">
-        <v>3443.257978259341</v>
+        <v>3084.258309332045</v>
       </c>
       <c r="V11" t="n">
-        <v>3080.641028193168</v>
+        <v>2721.641359265871</v>
       </c>
       <c r="W11" t="n">
-        <v>2675.785573604201</v>
+        <v>2316.785904676904</v>
       </c>
       <c r="X11" t="n">
-        <v>2256.643110183512</v>
+        <v>2235.35478619156</v>
       </c>
       <c r="Y11" t="n">
-        <v>2068.893185458867</v>
+        <v>2235.35478619156</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.7099420328029</v>
+        <v>579.1157392504558</v>
       </c>
       <c r="C12" t="n">
-        <v>470.2534808694452</v>
+        <v>472.6592780870981</v>
       </c>
       <c r="D12" t="n">
-        <v>375.1631920159984</v>
+        <v>377.5689892336514</v>
       </c>
       <c r="E12" t="n">
-        <v>281.0427773429521</v>
+        <v>283.4485745606051</v>
       </c>
       <c r="F12" t="n">
-        <v>197.6589389591138</v>
+        <v>200.0647361767667</v>
       </c>
       <c r="G12" t="n">
-        <v>112.2738492252976</v>
+        <v>114.6796464429506</v>
       </c>
       <c r="H12" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="I12" t="n">
-        <v>96.60187020196769</v>
+        <v>99.00766741962065</v>
       </c>
       <c r="J12" t="n">
-        <v>421.1601951681801</v>
+        <v>423.565992385833</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.866241793904</v>
+        <v>423.565992385833</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.866241793904</v>
+        <v>1078.272039011557</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.605180425979</v>
+        <v>1619.010977643632</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.777958520319</v>
+        <v>1736.183755737972</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.322520968702</v>
+        <v>1672.728318186355</v>
       </c>
       <c r="T12" t="n">
-        <v>1540.143877299304</v>
+        <v>1542.549674516957</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.807330299272</v>
+        <v>1366.213127516925</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.689812361271</v>
+        <v>1167.095609578924</v>
       </c>
       <c r="W12" t="n">
-        <v>979.3670580944654</v>
+        <v>981.7728553121183</v>
       </c>
       <c r="X12" t="n">
-        <v>824.4996223333453</v>
+        <v>826.9054195509982</v>
       </c>
       <c r="Y12" t="n">
-        <v>698.0138431125661</v>
+        <v>700.419640330219</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1009.694183343766</v>
+        <v>1039.453011129042</v>
       </c>
       <c r="C13" t="n">
-        <v>837.132471826991</v>
+        <v>866.8912996122672</v>
       </c>
       <c r="D13" t="n">
-        <v>671.2544790285135</v>
+        <v>701.01330681379</v>
       </c>
       <c r="E13" t="n">
-        <v>501.4964752792508</v>
+        <v>531.2553030645272</v>
       </c>
       <c r="F13" t="n">
-        <v>324.7894212410071</v>
+        <v>467.0973927682855</v>
       </c>
       <c r="G13" t="n">
-        <v>159.1981462668348</v>
+        <v>301.5061177941132</v>
       </c>
       <c r="H13" t="n">
-        <v>159.1981462668348</v>
+        <v>161.6039434844877</v>
       </c>
       <c r="I13" t="n">
-        <v>70.53819704151009</v>
+        <v>72.94399425916305</v>
       </c>
       <c r="J13" t="n">
-        <v>157.1178822061999</v>
+        <v>159.5236794238529</v>
       </c>
       <c r="K13" t="n">
-        <v>431.8763367773356</v>
+        <v>434.2821339949885</v>
       </c>
       <c r="L13" t="n">
-        <v>850.0862185452966</v>
+        <v>852.4920157629496</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.57008572621</v>
+        <v>1311.975882943863</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.828888883854</v>
+        <v>1754.234686101507</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.498138109635</v>
+        <v>2173.903935327289</v>
       </c>
       <c r="P13" t="n">
-        <v>2519.005032079977</v>
+        <v>2521.410829297631</v>
       </c>
       <c r="Q13" t="n">
-        <v>2687.19780694431</v>
+        <v>2689.603604161963</v>
       </c>
       <c r="R13" t="n">
-        <v>2687.197806944309</v>
+        <v>2668.185782867335</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.956438242306</v>
+        <v>2508.944414165332</v>
       </c>
       <c r="T13" t="n">
-        <v>2282.076991820761</v>
+        <v>2263.064967743787</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.643991073866</v>
+        <v>2263.064967743787</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.688482944297</v>
+        <v>1976.109459614217</v>
       </c>
       <c r="W13" t="n">
-        <v>1674.324227415233</v>
+        <v>1704.083055200509</v>
       </c>
       <c r="X13" t="n">
-        <v>1428.932472748645</v>
+        <v>1458.691300533921</v>
       </c>
       <c r="Y13" t="n">
-        <v>1201.512802062753</v>
+        <v>1231.27162984803</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D14" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E14" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F14" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H14" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436401</v>
       </c>
       <c r="I14" t="n">
         <v>102.2608402707796</v>
@@ -5279,49 +5279,49 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>537.5155277236975</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>1612.575493976557</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5358,19 +5358,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>970.9960463903949</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405613</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>754.219347342084</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
         <v>584.4613435928212</v>
@@ -5458,28 +5458,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W16" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X16" t="n">
-        <v>1390.234335795274</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y16" t="n">
-        <v>1162.814665109382</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651788</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
         <v>2090.757574835212</v>
@@ -5513,52 +5513,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>605.8694973157595</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1680.929463568619</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2837.97729877917</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3963.708282215617</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4943.887948785923</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4943.887948785923</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785923</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846698</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837042</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
         <v>1107.588885023173</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882658</v>
       </c>
       <c r="C19" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365883</v>
       </c>
       <c r="D19" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674087</v>
       </c>
       <c r="E19" t="n">
-        <v>444.5591692831957</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F19" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5698,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050032</v>
+        <v>2683.363958244297</v>
       </c>
       <c r="U19" t="n">
-        <v>2176.368833962455</v>
+        <v>2404.930957497402</v>
       </c>
       <c r="V19" t="n">
-        <v>1889.413325832886</v>
+        <v>2117.975449367833</v>
       </c>
       <c r="W19" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954124</v>
       </c>
       <c r="X19" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.557290287537</v>
       </c>
       <c r="Y19" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601645</v>
       </c>
     </row>
     <row r="20">
@@ -5759,7 +5759,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
         <v>2588.899621423628</v>
@@ -5777,25 +5777,25 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="21">
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1092.659051657336</v>
+        <v>811.7546776883916</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>639.1929661716165</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>473.3149733731392</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>303.5569696238765</v>
       </c>
       <c r="G22" t="n">
         <v>242.1630145804051</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.271008272081</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V22" t="n">
-        <v>2029.315500142511</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W22" t="n">
-        <v>1757.289095728803</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X22" t="n">
-        <v>1511.897341062215</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y22" t="n">
-        <v>1284.477670376323</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477108</v>
+        <v>864.7097725347917</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>692.1480610180166</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>526.2700682195393</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="F25" t="n">
-        <v>267.852115244952</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1283.948061939671</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1056.528391253779</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6263,13 +6263,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>970.9960463903949</v>
+        <v>790.3368563937632</v>
       </c>
       <c r="C28" t="n">
-        <v>798.4343348736198</v>
+        <v>617.7751448769882</v>
       </c>
       <c r="D28" t="n">
-        <v>632.5563420751425</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E28" t="n">
-        <v>462.7983383258798</v>
+        <v>282.1391483292482</v>
       </c>
       <c r="F28" t="n">
-        <v>286.091284287636</v>
+        <v>105.4320942910044</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2473.041003752034</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2194.608003005139</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V28" t="n">
-        <v>1907.65249487557</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W28" t="n">
-        <v>1635.626090461861</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X28" t="n">
-        <v>1390.234335795274</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y28" t="n">
-        <v>1162.814665109382</v>
+        <v>982.1554751127503</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6500,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="30">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>614.3171730324586</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6686,13 +6686,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6835,7 +6835,7 @@
         <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309358</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
         <v>614.3171730324584</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1584.138034390331</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>444.7825334645028</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1279.132825422681</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2354.19279167554</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2354.19279167554</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2354.19279167554</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3334.372458245846</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4162.682333079242</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4709.181119037837</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
-        <v>4878.335183790893</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>4811.083017387607</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3227.177156566213</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C36" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D36" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E36" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F36" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H36" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>123.6303768362755</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S36" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T36" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V36" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W36" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y36" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C37" t="n">
-        <v>905.6649082936673</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D37" t="n">
-        <v>756.1866229080661</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>602.8283265716798</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>442.5209799463121</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>293.3294123850159</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>169.8269454882665</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
-        <v>97.56670367581786</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2465.473625281948</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.648111803008</v>
+        <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J38" t="n">
         <v>532.8213911287357</v>
@@ -7181,43 +7181,43 @@
         <v>2442.231649339773</v>
       </c>
       <c r="M38" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N38" t="n">
-        <v>3334.372458245845</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O38" t="n">
-        <v>3334.372458245845</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T38" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278742</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I39" t="n">
         <v>123.6303768362754</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P39" t="n">
-        <v>1128.922221872865</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q39" t="n">
         <v>1643.633687060287</v>
@@ -7312,22 +7312,22 @@
         <v>905.6649082936672</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080659</v>
+        <v>756.1866229080661</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716793</v>
+        <v>602.8283265716794</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463116</v>
+        <v>442.5209799463118</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850156</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882662</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7348,10 +7348,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R40" t="n">
         <v>2837.795025579745</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C41" t="n">
         <v>2003.64811180301</v>
@@ -7403,10 +7403,10 @@
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
         <v>532.8213911287357</v>
@@ -7415,43 +7415,43 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y41" t="n">
         <v>2835.290740278742</v>
@@ -7482,10 +7482,10 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J42" t="n">
         <v>448.1887018024878</v>
@@ -7546,10 +7546,10 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936669</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080661</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E43" t="n">
         <v>602.8283265716796</v>
@@ -7558,13 +7558,13 @@
         <v>442.5209799463119</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850155</v>
+        <v>293.3294123850158</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7585,10 +7585,10 @@
         <v>2294.966764156103</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461496</v>
+        <v>2842.813139461497</v>
       </c>
       <c r="R43" t="n">
         <v>2837.795025579744</v>
@@ -7600,7 +7600,7 @@
         <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206711</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390331</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961502</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835861</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197252</v>
+        <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
         <v>532.8213911287357</v>
@@ -7652,46 +7652,46 @@
         <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2354.19279167554</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3334.372458245846</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079242</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037837</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387607</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.415497673521</v>
+        <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403414</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574026</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566213</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278743</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,13 +7719,13 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362755</v>
+        <v>123.6303768362754</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>448.1887018024877</v>
       </c>
       <c r="K45" t="n">
         <v>1102.894748428211</v>
@@ -7783,25 +7783,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936667</v>
+        <v>905.6649082936674</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080655</v>
+        <v>756.1866229080662</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716789</v>
+        <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463112</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.329412385015</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581788</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7828,25 +7828,25 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2694.953364290618</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281948</v>
+        <v>2465.473625281949</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.440331947929</v>
+        <v>2203.44033194793</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1932.884531231237</v>
       </c>
       <c r="W46" t="n">
         <v>1677.257834230404</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976692</v>
+        <v>1448.265786976693</v>
       </c>
       <c r="Y46" t="n">
         <v>1237.245823703677</v>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7994,10 +7994,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>6.257489509822733</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,25 +8137,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588756</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,13 +8228,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8289,16 +8289,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,16 +8374,16 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>520.1446552666758</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>542.0454828568517</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568518</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568518</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568515</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153868</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568518</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122903</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,13 +8687,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.1339570349788</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188762</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188763</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8927,7 +8927,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1859873202727</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,28 +9161,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>508.6956131767474</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
         <v>170.8626916697543</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,10 +9407,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -10109,31 +10109,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>350.723060392611</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,7 +10665,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10829,13 +10829,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
         <v>836.6766412458549</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10920,7 +10920,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11063,7 +11063,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,10 +23321,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>334.334231485992</v>
       </c>
       <c r="Y11" t="n">
-        <v>218.3308369859447</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>111.4236523045827</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>227.3655273957978</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>120.446375214272</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>74.1534993319043</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23938,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>208.2197249473402</v>
       </c>
       <c r="U19" t="n">
-        <v>139.592177662725</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-8.538708137538961e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>103.155346731394</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,13 +24175,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>120.4463752142721</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>73.62918697961828</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>120.4463752142715</v>
+        <v>160.7958207444075</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627252</v>
+        <v>139.5921776627261</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627253</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>8.633094239485217e-13</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>821478.0298151084</v>
+        <v>833310.9588461943</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>821478.0298151084</v>
+        <v>833949.5318727758</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>827515.8499975272</v>
+        <v>833949.5318727758</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648008.5124670593</v>
+        <v>662895.6670800563</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>844309.3025011448</v>
+        <v>844309.3025011451</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>844309.3025011448</v>
+        <v>844309.3025011451</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>855699.919002687</v>
+        <v>844309.3025011448</v>
       </c>
     </row>
     <row r="14">
@@ -26320,10 +26320,10 @@
         <v>147440.5129698623</v>
       </c>
       <c r="E2" t="n">
-        <v>111200.0715271665</v>
+        <v>113754.748859257</v>
       </c>
       <c r="F2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="G2" t="n">
         <v>144885.8356377719</v>
@@ -26335,25 +26335,25 @@
         <v>144885.8356377719</v>
       </c>
       <c r="J2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="K2" t="n">
-        <v>144885.8356377719</v>
+        <v>144885.8356377718</v>
       </c>
       <c r="L2" t="n">
         <v>144885.8356377719</v>
       </c>
       <c r="M2" t="n">
+        <v>144885.8356377719</v>
+      </c>
+      <c r="N2" t="n">
         <v>147440.5129698624</v>
       </c>
-      <c r="N2" t="n">
-        <v>147440.5129698625</v>
-      </c>
       <c r="O2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698624</v>
       </c>
       <c r="P2" t="n">
-        <v>147440.5129698623</v>
+        <v>147440.5129698624</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>219526.2586797193</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4023.346928949156</v>
       </c>
       <c r="D3" t="n">
-        <v>36576.56611835383</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>101421.566272817</v>
+        <v>72938.0436153441</v>
       </c>
       <c r="F3" t="n">
-        <v>113617.025923871</v>
+        <v>105000.4827540557</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>171392.9763877635</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>3205.121347375312</v>
       </c>
       <c r="L3" t="n">
-        <v>29801.37042610272</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>83016.20625515941</v>
+        <v>60876.72976950146</v>
       </c>
       <c r="N3" t="n">
-        <v>97121.64797769117</v>
+        <v>88373.14763716047</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199828.8262465156</v>
+        <v>158848.1923688625</v>
       </c>
       <c r="C4" t="n">
-        <v>199828.8262465156</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="D4" t="n">
-        <v>178918.221808275</v>
+        <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>52190.62636720399</v>
+        <v>53389.63827696995</v>
       </c>
       <c r="F4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="H4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="K4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="M4" t="n">
         <v>68000.69828933279</v>
       </c>
-      <c r="M4" t="n">
-        <v>81349.2499521368</v>
-      </c>
       <c r="N4" t="n">
-        <v>81349.24995213679</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="O4" t="n">
-        <v>81349.2499521368</v>
+        <v>81349.24995213677</v>
       </c>
       <c r="P4" t="n">
-        <v>81349.2499521368</v>
+        <v>81349.24995213677</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>73455.35436996844</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>66583.96535769658</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53609.02975154767</v>
+        <v>55437.43563696391</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>75515.61472608973</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>75515.6147260897</v>
+      </c>
+      <c r="O5" t="n">
         <v>75515.61472608971</v>
       </c>
-      <c r="O5" t="n">
-        <v>75515.61472608973</v>
-      </c>
       <c r="P5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-254004.4020735855</v>
+        <v>-304389.2924486879</v>
       </c>
       <c r="C6" t="n">
-        <v>-111813.1014138756</v>
+        <v>-87431.99977351831</v>
       </c>
       <c r="D6" t="n">
-        <v>-134638.2403144631</v>
+        <v>-83408.65284456919</v>
       </c>
       <c r="E6" t="n">
-        <v>-96021.15086440205</v>
+        <v>-68316.60288920827</v>
       </c>
       <c r="F6" t="n">
-        <v>-114450.1271812244</v>
+        <v>-105856.8083507918</v>
       </c>
       <c r="G6" t="n">
-        <v>-833.101257353439</v>
+        <v>-856.3255967360502</v>
       </c>
       <c r="H6" t="n">
-        <v>-833.1012573534099</v>
+        <v>-856.3255967361087</v>
       </c>
       <c r="I6" t="n">
-        <v>-833.1012573534099</v>
+        <v>-856.3255967360941</v>
       </c>
       <c r="J6" t="n">
-        <v>-111847.5666023436</v>
+        <v>-172249.3019844996</v>
       </c>
       <c r="K6" t="n">
-        <v>-833.101257353439</v>
+        <v>-4061.446944111425</v>
       </c>
       <c r="L6" t="n">
-        <v>-30634.47168345613</v>
+        <v>-856.3255967360649</v>
       </c>
       <c r="M6" t="n">
-        <v>-92440.55796352352</v>
+        <v>-61733.05536623754</v>
       </c>
       <c r="N6" t="n">
-        <v>-106545.9996860552</v>
+        <v>-97797.49934552453</v>
       </c>
       <c r="O6" t="n">
-        <v>-9424.351708364236</v>
+        <v>-9424.351708364047</v>
       </c>
       <c r="P6" t="n">
-        <v>-9424.351708364236</v>
+        <v>-9424.351708364033</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="3">
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>542.0454828568517</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>881.7274630188762</v>
+        <v>911.7999282395381</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -26820,7 +26820,7 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
         <v>1219.583795947723</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>12.45345710179708</v>
       </c>
       <c r="D4" t="n">
-        <v>117.7496253367473</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>339.6819801620245</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="F4" t="n">
-        <v>396.5330403658692</v>
+        <v>366.4605751452073</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179708</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367473</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>281.0052727250024</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658689</v>
+        <v>307.7838677081847</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>12.45345710179708</v>
       </c>
       <c r="L4" t="n">
-        <v>117.7496253367473</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>339.6819801620245</v>
+        <v>244.2847216316811</v>
       </c>
       <c r="N4" t="n">
-        <v>396.5330403658692</v>
+        <v>366.4605751452073</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>72.71868052833509</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>203.2593161337413</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>187.9215539833802</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>150.0830022581258</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>5.14113987318342</v>
-      </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>295.507523034549</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>265.6623183857085</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>105.0414389630128</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
@@ -27780,19 +27780,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>52.01701577190849</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>83.52887324140039</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>272.3860141776393</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>400</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>143.6516710866787</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>261.5056888303096</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-2.120263810372943e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28725,7 +28725,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>2.98632585327141e-12</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I38" t="n">
         <v>0.4126214791313976</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874736</v>
+        <v>16.23571033874738</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>121.1234907850369</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34714,10 +34714,10 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>358.9284720888815</v>
+        <v>6.257489509822733</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>655.0617495060599</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>120.5810333588756</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,13 +34948,13 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35009,16 +35009,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>20.13097499434645</v>
       </c>
       <c r="J6" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35030,10 +35030,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>395.2263144949848</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>520.1446552666758</v>
+        <v>667.515206607857</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>542.0454828568517</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>542.0454828568518</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>542.0454828568518</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,16 +35246,16 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>542.0454828568515</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>123.4292214153868</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
-        <v>542.0454828568518</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>38.07030050122903</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,13 +35407,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>339.1339570349788</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>881.7274630188762</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>881.7274630188763</v>
+        <v>911.7999282395378</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>27.43449448359615</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35574,13 +35574,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35647,7 +35647,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35656,7 +35656,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1859873202727</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,28 +35881,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>508.6956131767474</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
         <v>170.862691669754</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36127,10 +36127,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36528,7 +36528,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -37239,7 +37239,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>350.723060392611</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N37" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37549,22 +37549,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>901.152332228356</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327045</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37640,7 +37640,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>519.9105708963857</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37713,13 +37713,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,7 +37783,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37795,13 +37795,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497184</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37950,13 +37950,13 @@
         <v>462.9617741343479</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900421</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>186.1274021209015</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,7 +38020,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>996.9910187763903</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38032,13 +38032,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
